--- a/output_sound/fs_16000_threshold_0.30/results_1s.xlsx
+++ b/output_sound/fs_16000_threshold_0.30/results_1s.xlsx
@@ -512,49 +512,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.07</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C2" t="n">
         <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>7.72</v>
+        <v>6.77</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="F2" t="n">
-        <v>11.08</v>
+        <v>9.76</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="H2" t="n">
-        <v>21.73</v>
+        <v>7.76</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="J2" t="n">
-        <v>4.32</v>
+        <v>4.07</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="L2" t="n">
-        <v>2.78</v>
+        <v>1.57</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="N2" t="n">
-        <v>876</v>
+        <v>217.91</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>170.71</v>
       </c>
     </row>
   </sheetData>
